--- a/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>ColonyOrigin</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>NumBeesAfTrans</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,8 +447,11 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="1">
         <v>43342</v>
@@ -459,8 +468,11 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="1">
         <v>43342</v>
@@ -477,8 +489,11 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>43342</v>
@@ -495,8 +510,11 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>43342</v>
@@ -543,8 +561,11 @@
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>43342</v>
@@ -561,8 +582,11 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>43342</v>
@@ -579,8 +603,11 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>43342</v>

--- a/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>ColonyOrigin</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wsc </t>
   </si>
 </sst>
 </file>
@@ -119,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,15 +407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -427,7 +439,7 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H1" t="s">
@@ -439,8 +451,14 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,12 +474,23 @@
       <c r="F2" s="1">
         <v>43342</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="3">
+        <v>8</v>
+      </c>
       <c r="H2" s="1">
         <v>43344</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>43348</v>
+      </c>
+      <c r="O2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -474,15 +503,29 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
       <c r="F3" s="1">
         <v>43342</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3">
+        <v>8</v>
+      </c>
       <c r="H3" s="1">
         <v>43344</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>43348</v>
+      </c>
+      <c r="O3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,15 +538,29 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
       <c r="F4" s="1">
         <v>43342</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
       <c r="H4" s="1">
         <v>43344</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>43348</v>
+      </c>
+      <c r="O4">
+        <v>6.1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -519,12 +576,23 @@
       <c r="F5" s="1">
         <v>43342</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
       <c r="H5" s="1">
         <v>43344</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>43348</v>
+      </c>
+      <c r="O5">
+        <v>7.1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -543,7 +611,9 @@
       <c r="F6" s="1">
         <v>43342</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3">
+        <v>7</v>
+      </c>
       <c r="H6" s="1">
         <v>43344</v>
       </c>
@@ -553,8 +623,14 @@
       <c r="J6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>8.1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -570,12 +646,23 @@
       <c r="F7" s="1">
         <v>43342</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="3">
+        <v>7</v>
+      </c>
       <c r="H7" s="1">
         <v>43344</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>43348</v>
+      </c>
+      <c r="O7">
+        <v>9.1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -591,12 +678,17 @@
       <c r="F8" s="1">
         <v>43342</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3">
+        <v>11</v>
+      </c>
       <c r="H8" s="1">
         <v>43344</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -612,12 +704,17 @@
       <c r="F9" s="1">
         <v>43342</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
       <c r="H9" s="1">
         <v>43344</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -636,7 +733,9 @@
       <c r="F10" s="1">
         <v>43342</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
       <c r="H10" s="1">
         <v>43344</v>
       </c>
@@ -647,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -657,9 +756,8 @@
       <c r="F11" s="2">
         <v>43346</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -669,9 +767,8 @@
       <c r="F12" s="2">
         <v>43346</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -681,9 +778,8 @@
       <c r="F13" s="2">
         <v>43346</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -693,9 +789,8 @@
       <c r="F14" s="2">
         <v>43346</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -705,9 +800,8 @@
       <c r="F15" s="2">
         <v>43346</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -717,9 +811,8 @@
       <c r="F16" s="2">
         <v>43346</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -727,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>167</v>
       </c>
@@ -735,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>168</v>
       </c>
@@ -743,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>169</v>
       </c>
@@ -751,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>170</v>
       </c>
@@ -759,60 +852,938 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>171</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>172</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>173</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>174</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>175</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>176</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>177</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>178</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>179</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>180</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>181</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>182</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>183</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>184</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>185</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4.0999999999999996</v>
+        <v>186</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5.0999999999999996</v>
+        <v>187</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>6.1</v>
+        <v>188</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>7.1</v>
+        <v>189</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>8.1</v>
+        <v>190</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>9.1</v>
+        <v>191</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>192</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>193</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>194</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>195</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>196</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>197</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>198</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>199</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>200</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>201</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>202</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>203</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>204</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>205</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>206</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>207</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>208</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>209</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>210</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>ColonyOrigin</t>
   </si>
@@ -89,7 +89,19 @@
     <t>escape</t>
   </si>
   <si>
-    <t xml:space="preserve">wsc </t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>14 fake flowers</t>
+  </si>
+  <si>
+    <t>12 real flowers</t>
+  </si>
+  <si>
+    <t>630 in</t>
+  </si>
+  <si>
+    <t>FromHB</t>
   </si>
 </sst>
 </file>
@@ -407,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P183"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,7 +432,7 @@
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -457,8 +469,11 @@
       <c r="P1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -471,6 +486,9 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
       <c r="F2" s="1">
         <v>43342</v>
       </c>
@@ -490,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -525,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -560,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -573,6 +591,9 @@
       <c r="D5">
         <v>3</v>
       </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
       <c r="F5" s="1">
         <v>43342</v>
       </c>
@@ -592,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -630,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -643,6 +664,9 @@
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
       <c r="F7" s="1">
         <v>43342</v>
       </c>
@@ -662,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -675,6 +699,9 @@
       <c r="D8">
         <v>3</v>
       </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
       <c r="F8" s="1">
         <v>43342</v>
       </c>
@@ -687,8 +714,14 @@
       <c r="I8" s="1">
         <v>43348</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>4.2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -701,6 +734,9 @@
       <c r="D9">
         <v>3</v>
       </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
       <c r="F9" s="1">
         <v>43342</v>
       </c>
@@ -713,8 +749,14 @@
       <c r="I9" s="1">
         <v>43348</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>6.2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -745,106 +787,233 @@
       <c r="J10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>7.2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="2">
         <v>43346</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <v>43350</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43354</v>
+      </c>
+      <c r="O11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>43346</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>43350</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43354</v>
+      </c>
+      <c r="O12">
+        <v>4.3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
       <c r="F13" s="2">
         <v>43346</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>43346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H13" s="1">
+        <v>43350</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43354</v>
+      </c>
+      <c r="O13">
+        <v>6.3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="O14">
+        <v>7.3</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="F15" s="2">
         <v>43346</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H15" s="1">
+        <v>43350</v>
+      </c>
+      <c r="I15" s="1">
+        <v>43354</v>
+      </c>
+      <c r="O15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
       <c r="F16" s="2">
         <v>43346</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <v>43350</v>
+      </c>
+      <c r="I16" s="1">
+        <v>43354</v>
+      </c>
+      <c r="O16">
+        <v>12.1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>14.1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>15.1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>167</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>12.2</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>168</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>14.2</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>169</v>
       </c>
       <c r="B21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>15.2</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>170</v>
       </c>
@@ -852,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>171</v>
       </c>
@@ -860,31 +1029,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>172</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>173</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>174</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>175</v>
       </c>
@@ -892,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>176</v>
       </c>
@@ -900,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>177</v>
       </c>
@@ -908,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>178</v>
       </c>
@@ -919,7 +1097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>179</v>
       </c>
@@ -927,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>180</v>
       </c>
@@ -943,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,605 +1363,120 @@
       <c r="A63">
         <v>211</v>
       </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>212</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>213</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>214</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>215</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>216</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>217</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>218</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>219</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>220</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>221</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>222</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>223</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>224</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>225</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>331</v>
+      <c r="B77">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>ColonyOrigin</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>FromHB</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>. Esc</t>
   </si>
 </sst>
 </file>
@@ -421,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,6 +1249,9 @@
       <c r="B48">
         <v>6</v>
       </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -1291,6 +1300,9 @@
       <c r="B54">
         <v>7</v>
       </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -1299,6 +1311,9 @@
       <c r="B55">
         <v>7</v>
       </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -1308,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1342,6 +1357,9 @@
       <c r="B60">
         <v>8</v>
       </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -1350,6 +1368,9 @@
       <c r="B61">
         <v>8</v>
       </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -1358,6 +1379,9 @@
       <c r="B62">
         <v>8</v>
       </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -1375,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>213</v>
       </c>
@@ -1383,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>214</v>
       </c>
@@ -1391,7 +1415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>215</v>
       </c>
@@ -1399,84 +1423,114 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>216</v>
       </c>
       <c r="B68">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>217</v>
       </c>
       <c r="B69">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>218</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>219</v>
       </c>
       <c r="B71">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>220</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>221</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>222</v>
       </c>
       <c r="B74">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>223</v>
       </c>
       <c r="B75">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>224</v>
       </c>
       <c r="B76">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>225</v>
       </c>
       <c r="B77">
         <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>ColonyOrigin</t>
   </si>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1169,9 @@
       <c r="B38">
         <v>4</v>
       </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1177,6 +1180,9 @@
       <c r="B39">
         <v>4</v>
       </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -1185,6 +1191,9 @@
       <c r="B40">
         <v>4</v>
       </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1193,6 +1202,9 @@
       <c r="B41">
         <v>4</v>
       </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -1201,6 +1213,9 @@
       <c r="B42">
         <v>4</v>
       </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1209,6 +1224,9 @@
       <c r="B43">
         <v>4</v>
       </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1217,6 +1235,9 @@
       <c r="B44">
         <v>6</v>
       </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -1225,6 +1246,9 @@
       <c r="B45">
         <v>6</v>
       </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -1233,6 +1257,9 @@
       <c r="B46">
         <v>6</v>
       </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -1241,6 +1268,9 @@
       <c r="B47">
         <v>6</v>
       </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -1260,6 +1290,9 @@
       <c r="B49">
         <v>7</v>
       </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -1405,6 +1438,9 @@
       </c>
       <c r="B65">
         <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">

--- a/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
+++ b/PlantTransTwo/PlantTransII_Exp5_FullRoute.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="24">
   <si>
     <t>ColonyOrigin</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>#bees taken</t>
-  </si>
-  <si>
-    <t>BeeID</t>
-  </si>
-  <si>
-    <t>colID</t>
   </si>
   <si>
     <t>FlowerID</t>
@@ -104,10 +98,7 @@
     <t>FromHB</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>. Esc</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -425,20 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -455,43 +446,34 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2">
         <v>8</v>
       </c>
@@ -507,14 +489,8 @@
       <c r="I2" s="1">
         <v>43348</v>
       </c>
-      <c r="O2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -542,14 +518,8 @@
       <c r="I3" s="1">
         <v>43348</v>
       </c>
-      <c r="O3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -557,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -577,14 +547,8 @@
       <c r="I4" s="1">
         <v>43348</v>
       </c>
-      <c r="O4">
-        <v>6.1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -612,14 +576,8 @@
       <c r="I5" s="1">
         <v>43348</v>
       </c>
-      <c r="O5">
-        <v>7.1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -650,14 +608,8 @@
       <c r="J6" t="s">
         <v>2</v>
       </c>
-      <c r="O6">
-        <v>8.1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -685,14 +637,8 @@
       <c r="I7" s="1">
         <v>43348</v>
       </c>
-      <c r="O7">
-        <v>9.1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -720,14 +666,8 @@
       <c r="I8" s="1">
         <v>43348</v>
       </c>
-      <c r="O8">
-        <v>4.2</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -755,14 +695,8 @@
       <c r="I9" s="1">
         <v>43348</v>
       </c>
-      <c r="O9">
-        <v>6.2</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -793,14 +727,8 @@
       <c r="J10" t="s">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>7.2</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -808,28 +736,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
       </c>
       <c r="F11" s="2">
         <v>43346</v>
       </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
       <c r="H11" s="1">
         <v>43350</v>
       </c>
       <c r="I11" s="1">
         <v>43354</v>
       </c>
-      <c r="O11">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -837,28 +765,28 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>43346</v>
       </c>
+      <c r="G12" s="3">
+        <v>7</v>
+      </c>
       <c r="H12" s="1">
         <v>43350</v>
       </c>
       <c r="I12" s="1">
         <v>43354</v>
       </c>
-      <c r="O12">
-        <v>4.3</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -866,707 +794,2387 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
       </c>
       <c r="F13" s="2">
         <v>43346</v>
       </c>
+      <c r="G13" s="3">
+        <v>8</v>
+      </c>
       <c r="H13" s="1">
         <v>43350</v>
       </c>
       <c r="I13" s="1">
         <v>43354</v>
       </c>
-      <c r="O13">
-        <v>6.3</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="O14">
-        <v>7.3</v>
-      </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43346</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43350</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>2</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
       </c>
       <c r="F15" s="2">
         <v>43346</v>
       </c>
+      <c r="G15" s="3">
+        <v>9</v>
+      </c>
       <c r="H15" s="1">
         <v>43350</v>
       </c>
       <c r="I15" s="1">
         <v>43354</v>
       </c>
-      <c r="O15">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>167</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L18" s="1">
         <v>43346</v>
       </c>
-      <c r="H16" s="1">
-        <v>43350</v>
-      </c>
-      <c r="I16" s="1">
-        <v>43354</v>
-      </c>
-      <c r="O16">
-        <v>12.1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O17">
-        <v>14.1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>168</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L19" s="1">
+        <v>43346</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>169</v>
+      </c>
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18">
-        <v>15.1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>167</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="O19">
-        <v>12.2</v>
-      </c>
-      <c r="P19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>168</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>14.2</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L20" s="1">
+        <v>43346</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B21">
         <v>9</v>
       </c>
-      <c r="O21">
-        <v>15.2</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L21" s="1">
+        <v>43346</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8</v>
+      </c>
+      <c r="K22" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L22" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L23" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J24" s="3">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L24" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6</v>
+      </c>
+      <c r="K25" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L25" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L26" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6</v>
+      </c>
+      <c r="K27" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L27" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J28" s="3">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L28" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J29" s="3">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L29" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J30" s="3">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L30" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J31" s="3">
+        <v>8</v>
+      </c>
+      <c r="K31" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L31" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J32" s="3">
+        <v>8</v>
+      </c>
+      <c r="K32" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L32" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J33" s="3">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L33" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J34" s="3">
+        <v>8</v>
+      </c>
+      <c r="K34" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L34" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J35" s="3">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L35" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J36" s="3">
+        <v>8</v>
+      </c>
+      <c r="K36" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L36" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L37" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J38" s="3">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L38" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J39" s="3">
+        <v>10</v>
+      </c>
+      <c r="K39" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L39" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10</v>
+      </c>
+      <c r="K40" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L40" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10</v>
+      </c>
+      <c r="K41" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L41" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J42" s="3">
+        <v>10</v>
+      </c>
+      <c r="K42" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L42" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J43" s="3">
+        <v>7</v>
+      </c>
+      <c r="K43" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L43" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7</v>
+      </c>
+      <c r="K44" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L44" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7</v>
+      </c>
+      <c r="K45" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L45" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7</v>
+      </c>
+      <c r="K46" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L46" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7</v>
+      </c>
+      <c r="K47" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L47" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11</v>
+      </c>
+      <c r="K48" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L48" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>198</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11</v>
+      </c>
+      <c r="K49" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L49" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>199</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J50" s="3">
+        <v>11</v>
+      </c>
+      <c r="K50" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L50" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>200</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J51" s="3">
+        <v>11</v>
+      </c>
+      <c r="K51" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L51" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>201</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J52" s="3">
+        <v>11</v>
+      </c>
+      <c r="K52" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L52" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>202</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J53" s="3">
+        <v>11</v>
+      </c>
+      <c r="K53" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L53" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>203</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11</v>
+      </c>
+      <c r="K54" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L54" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>204</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J55" s="3">
+        <v>11</v>
+      </c>
+      <c r="K55" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L55" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>205</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
         <v>6</v>
       </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>197</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>198</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>199</v>
-      </c>
-      <c r="B51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>200</v>
-      </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>201</v>
-      </c>
-      <c r="B53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>202</v>
-      </c>
-      <c r="B54">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>203</v>
-      </c>
-      <c r="B55">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>204</v>
-      </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I56" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J56" s="3">
+        <v>7</v>
+      </c>
+      <c r="K56" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L56" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J57" s="3">
+        <v>7</v>
+      </c>
+      <c r="K57" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L57" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7</v>
+      </c>
+      <c r="K58" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L58" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7</v>
+      </c>
+      <c r="K59" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L59" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B60">
         <v>8</v>
       </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J60" s="3">
+        <v>7</v>
+      </c>
+      <c r="K60" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L60" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61" s="1">
+        <v>43342</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7</v>
+      </c>
+      <c r="K61" s="1">
+        <v>43344</v>
+      </c>
+      <c r="L61" s="1">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B62">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7</v>
+      </c>
+      <c r="K62" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L62" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B63">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J63" s="3">
+        <v>10</v>
+      </c>
+      <c r="K63" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L63" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J64" s="3">
+        <v>10</v>
+      </c>
+      <c r="K64" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L64" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J65" s="3">
+        <v>10</v>
+      </c>
+      <c r="K65" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L65" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B66">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J66" s="3">
+        <v>10</v>
+      </c>
+      <c r="K66" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L66" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J67" s="3">
+        <v>8</v>
+      </c>
+      <c r="K67" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L67" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B68">
         <v>12</v>
       </c>
-      <c r="C68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J68" s="3">
+        <v>8</v>
+      </c>
+      <c r="K68" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L68" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B69">
         <v>12</v>
       </c>
-      <c r="C69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J69" s="3">
+        <v>8</v>
+      </c>
+      <c r="K69" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L69" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
-      <c r="C70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J70" s="3">
+        <v>8</v>
+      </c>
+      <c r="K70" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L70" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B71">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J71" s="3">
+        <v>8</v>
+      </c>
+      <c r="K71" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L71" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B72">
-        <v>14</v>
-      </c>
-      <c r="C72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J72" s="3">
+        <v>9</v>
+      </c>
+      <c r="K72" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L72" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
-      <c r="C73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J73" s="3">
+        <v>9</v>
+      </c>
+      <c r="K73" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L73" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B74">
         <v>15</v>
       </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J74" s="3">
+        <v>9</v>
+      </c>
+      <c r="K74" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L74" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B75">
         <v>15</v>
       </c>
-      <c r="C75" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J75" s="3">
+        <v>9</v>
+      </c>
+      <c r="K75" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L75" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B76">
         <v>15</v>
       </c>
-      <c r="C76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>225</v>
-      </c>
-      <c r="B77">
-        <v>15</v>
-      </c>
-      <c r="C77" t="s">
-        <v>25</v>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76" s="2">
+        <v>43346</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9</v>
+      </c>
+      <c r="K76" s="1">
+        <v>43350</v>
+      </c>
+      <c r="L76" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>6.1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>7.1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>8.1</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>9.1</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>4.2</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6.2</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>7.2</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>4.3</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6.3</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>7.3</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>12.1</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>14.1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>15.1</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>12.2</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>14.2</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>15.2</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
